--- a/WORLD_CUP.xlsx
+++ b/WORLD_CUP.xlsx
@@ -51,7 +51,7 @@
     <t>2,0</t>
   </si>
   <si>
-    <t>table</t>
+    <t>Sheet 5</t>
   </si>
   <si>
     <t>map</t>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>

--- a/WORLD_CUP.xlsx
+++ b/WORLD_CUP.xlsx
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +99,120 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,137 +224,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,73 +255,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,61 +399,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,43 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,23 +452,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +473,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -499,6 +504,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,171 +546,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/WORLD_CUP.xlsx
+++ b/WORLD_CUP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>Sheet name</t>
   </si>
@@ -42,7 +42,13 @@
     <t>Goals by each team</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>1,0</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>Annual Goals Count</t>
@@ -1019,7 +1025,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1058,74 +1064,74 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1147,13 +1153,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1164,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1175,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1186,7 +1192,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1197,7 +1203,7 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1225,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1230,7 +1236,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1241,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1252,7 +1258,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1263,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1274,7 +1280,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1285,7 +1291,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1296,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1307,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1318,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1329,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1340,7 +1346,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1351,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1362,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1373,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1395,10 +1401,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
